--- a/Data/EC/NIT-9000630241.xlsx
+++ b/Data/EC/NIT-9000630241.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E36761E1-9F15-46BB-B2F2-2A4072D3524D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDBB5A74-83B0-4AA5-8208-DB522619E7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5688A7C2-2385-45A3-8DCB-060EC7CE6988}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9AEE74F2-0E86-4957-BC8F-91B78A225F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,247 +71,247 @@
     <t>JHON ALEXIS CASTELLANOS REYES</t>
   </si>
   <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
     <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -410,7 +410,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -423,9 +425,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -625,23 +625,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -669,10 +669,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,7 +725,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96B31228-A440-C151-7565-64988D391D74}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C00790-9AE5-8846-D311-430082B68E53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,7 +1076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F542EC2D-B3B8-4081-B68A-4BBB2A581CCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3183432F-EEF7-4521-9ACE-4C2BE0D985D0}">
   <dimension ref="B2:J102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1254,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>28124</v>
+        <v>22668</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1277,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1300,7 +1300,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1323,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1346,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1369,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1392,7 +1392,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1415,7 +1415,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1438,7 +1438,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1461,7 +1461,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1484,7 +1484,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1507,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1530,7 +1530,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1553,7 +1553,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1576,7 +1576,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1599,7 +1599,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1622,7 +1622,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1645,7 +1645,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1668,7 +1668,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1691,7 +1691,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1714,7 +1714,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1737,7 +1737,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1760,7 +1760,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1783,7 +1783,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G39" s="18">
         <v>781242</v>
@@ -1806,7 +1806,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>22668</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -2542,7 +2542,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2565,7 +2565,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
         <v>781242</v>
@@ -2588,7 +2588,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G74" s="18">
         <v>781242</v>
@@ -2611,7 +2611,7 @@
         <v>70</v>
       </c>
       <c r="F75" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
         <v>781242</v>
@@ -2634,7 +2634,7 @@
         <v>71</v>
       </c>
       <c r="F76" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G76" s="18">
         <v>781242</v>
@@ -2657,7 +2657,7 @@
         <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2680,7 +2680,7 @@
         <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2703,7 +2703,7 @@
         <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2726,7 +2726,7 @@
         <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2749,7 +2749,7 @@
         <v>76</v>
       </c>
       <c r="F81" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2772,7 +2772,7 @@
         <v>77</v>
       </c>
       <c r="F82" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2795,7 +2795,7 @@
         <v>78</v>
       </c>
       <c r="F83" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2818,7 +2818,7 @@
         <v>79</v>
       </c>
       <c r="F84" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2841,7 +2841,7 @@
         <v>80</v>
       </c>
       <c r="F85" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2864,7 +2864,7 @@
         <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2887,7 +2887,7 @@
         <v>82</v>
       </c>
       <c r="F87" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2910,7 +2910,7 @@
         <v>83</v>
       </c>
       <c r="F88" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2933,7 +2933,7 @@
         <v>84</v>
       </c>
       <c r="F89" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2956,7 +2956,7 @@
         <v>85</v>
       </c>
       <c r="F90" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2979,7 +2979,7 @@
         <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -3002,7 +3002,7 @@
         <v>87</v>
       </c>
       <c r="F92" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3025,7 +3025,7 @@
         <v>88</v>
       </c>
       <c r="F93" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3048,7 +3048,7 @@
         <v>89</v>
       </c>
       <c r="F94" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3071,7 +3071,7 @@
         <v>90</v>
       </c>
       <c r="F95" s="18">
-        <v>22668</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3094,7 +3094,7 @@
         <v>91</v>
       </c>
       <c r="F96" s="24">
-        <v>22668</v>
+        <v>28124</v>
       </c>
       <c r="G96" s="24">
         <v>781242</v>
